--- a/output/below_50/tRNA-Ser-TGA-4-1.xlsx
+++ b/output/below_50/tRNA-Ser-TGA-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
   <si>
     <t>chr6</t>
   </si>
@@ -354,198 +354,6 @@
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>27473670</t>
-  </si>
-  <si>
-    <t>27473693</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>27473673</t>
-  </si>
-  <si>
-    <t>GGTGCGTAGTCGTGGCCGAG</t>
-  </si>
-  <si>
-    <t>97% (69)</t>
-  </si>
-  <si>
-    <t>72% (56)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 44, Doench 2016: 97%, Moreno-Mateos: 72%</t>
-  </si>
-  <si>
-    <t>66126208836</t>
-  </si>
-  <si>
-    <t>27473877</t>
-  </si>
-  <si>
-    <t>27473900</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>27473897</t>
-  </si>
-  <si>
-    <t>TGGAATTCAGTTGAGAAAAG</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 28, Doench 2016: 35%, Moreno-Mateos: 82%</t>
-  </si>
-  <si>
-    <t>2.22982E+11</t>
-  </si>
-  <si>
-    <t>27473887</t>
-  </si>
-  <si>
-    <t>27473910</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>27473907</t>
-  </si>
-  <si>
-    <t>TTGAGAAAAGTGGAGTTCAA</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>77% (59)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 66%, Moreno-Mateos: 77%</t>
-  </si>
-  <si>
-    <t>2.04652E+11</t>
-  </si>
-  <si>
-    <t>27473995</t>
-  </si>
-  <si>
-    <t>27474018</t>
-  </si>
-  <si>
-    <t>27474015</t>
-  </si>
-  <si>
-    <t>TTGTGAGAAACCAGCAGAAA</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 56%, Moreno-Mateos: 83%</t>
-  </si>
-  <si>
-    <t>7919672957</t>
-  </si>
-  <si>
-    <t>27474002</t>
-  </si>
-  <si>
-    <t>27474025</t>
-  </si>
-  <si>
-    <t>27474022</t>
-  </si>
-  <si>
-    <t>AAACCAGCAGAAAGGGAGTT</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>37% (39)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 12%, Moreno-Mateos: 37%</t>
-  </si>
-  <si>
-    <t>3.67237E+11</t>
-  </si>
-  <si>
-    <t>27474010</t>
-  </si>
-  <si>
-    <t>27474033</t>
-  </si>
-  <si>
-    <t>27474030</t>
-  </si>
-  <si>
-    <t>AGAAAGGGAGTTTGGAGCTG</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 59%, Moreno-Mateos: 44%</t>
-  </si>
-  <si>
-    <t>2.43758E+11</t>
-  </si>
-  <si>
-    <t>27474011</t>
-  </si>
-  <si>
-    <t>27474034</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>27474031</t>
-  </si>
-  <si>
-    <t>GAAAGGGAGTTTGGAGCTGA</t>
-  </si>
-  <si>
-    <t>92% (72)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 56%, Moreno-Mateos: 92%</t>
-  </si>
-  <si>
-    <t>2.91766E+11</t>
   </si>
 </sst>
 </file>
@@ -590,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1245,419 +1053,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" t="s">
-        <v>130</v>
-      </c>
-      <c r="P13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" t="s">
-        <v>131</v>
-      </c>
-      <c r="S13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>141</v>
-      </c>
-      <c r="R14" t="s">
-        <v>142</v>
-      </c>
-      <c r="S14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>150</v>
-      </c>
-      <c r="R15" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s">
-        <v>167</v>
-      </c>
-      <c r="S17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" t="s">
-        <v>174</v>
-      </c>
-      <c r="P18" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" t="s">
-        <v>176</v>
-      </c>
-      <c r="S18" t="s">
-        <v>177</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
